--- a/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>中邮中小盘灵活配置混合</t>
   </si>
   <si>
+    <t>2.81</t>
+  </si>
+  <si>
     <t>72.23</t>
   </si>
   <si>
     <t>2.84</t>
+  </si>
+  <si>
+    <t>0.0798</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>590006</t>
-  </si>
-  <si>
-    <t>中邮中小盘灵活配置混合</t>
-  </si>
-  <si>
-    <t>2.81</t>
-  </si>
-  <si>
-    <t>72.23</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>0.0798</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1106</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.95</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.48</v>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1520,13 +1585,895 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1485</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3407</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.86</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8801</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.95</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.48</v>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2467,13 +2554,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2749,7 +2750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2760,17 +2761,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2780,14 +2801,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.27</v>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2796,14 +2839,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>7.86</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="4">
@@ -2812,14 +2945,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>7.95</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="5">
@@ -2828,14 +2961,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>6.48</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="6">
@@ -2844,13 +2977,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>590006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮中小盘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>72.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0798</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>519697</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>交银优势行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.37</t>
+          <t>65.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.60</t>
+          <t>73.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9321</t>
+          <t>1.7297</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -639,454 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519697</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银优势行业混合</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65.41</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.23</t>
+          <t>79.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7530</t>
+          <t>0.0741</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519712</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银阿尔法核心混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7231</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德持续成长主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7118</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001468</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发改革先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1615</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>590006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮中小盘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>77.41</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003842</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>25.69</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010447</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中邮未来成长混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>29.80</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003843</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>25.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010448</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中邮未来成长混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.80</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005290</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.36</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009710</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>87.36</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1151,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>519712</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>交银阿尔法核心混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.56</t>
+          <t>62.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3523</t>
+          <t>2.1766</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1199,26 +819,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57.51</t>
+          <t>53.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.31</t>
+          <t>79.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1106</t>
+          <t>1.8801</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1227,36 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519712</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银阿尔法核心混合</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>56.51</t>
+          <t>28.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.0626</t>
+          <t>1.0029</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1265,36 +885,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005001</t>
+          <t>001127</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德持续成长主题混合</t>
+          <t>中银宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.29</t>
+          <t>74.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0241</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1303,36 +923,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.75</t>
+          <t>78.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2538</t>
+          <t>0.0813</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1341,36 +961,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>000120</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>中银美丽中国混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.53</t>
+          <t>81.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0906</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1379,36 +999,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011448</t>
+          <t>000591</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银证券均衡成长混合A</t>
+          <t>中银健康生活混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>70.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0536</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1417,36 +1037,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011449</t>
+          <t>005545</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银证券均衡成长混合C</t>
+          <t>中银改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>68.74</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2031,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2441,36 +2061,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519712</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银阿尔法核心混合</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62.19</t>
+          <t>41.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1766</t>
+          <t>2.3523</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2489,26 +2109,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.87</t>
+          <t>57.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.60</t>
+          <t>76.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8801</t>
+          <t>2.1106</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2517,36 +2137,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005001</t>
+          <t>519712</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德持续成长主题混合</t>
+          <t>交银阿尔法核心混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.17</t>
+          <t>56.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>77.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0029</t>
+          <t>2.0626</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2555,36 +2175,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001127</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银宏观策略灵活配置混合</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.26</t>
+          <t>87.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>1.0241</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2593,36 +2213,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.54</t>
+          <t>78.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0813</t>
+          <t>0.2538</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2631,36 +2251,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000120</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银美丽中国混合</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.97</t>
+          <t>77.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2669,36 +2289,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000591</t>
+          <t>011448</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银健康生活混合</t>
+          <t>中银证券均衡成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0536</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2707,36 +2327,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005545</t>
+          <t>011449</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银改革红利灵活配置混合</t>
+          <t>中银证券均衡成长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>68.74</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2750,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2771,7 +2391,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2801,36 +2421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519697</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银优势行业混合</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.52</t>
+          <t>42.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.23</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7297</t>
+          <t>1.9321</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2839,36 +2459,454 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>590006</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0741</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2882,128 +2920,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.08</v>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.27</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>7.86</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>7.95</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>6.48</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519697</t>
+          <t>002584</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银优势行业混合</t>
+          <t>富安达长盈灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.52</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.23</t>
+          <t>46.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7297</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -677,32 +694,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>016214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>富安达长盈灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>46.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0741</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -715,6 +732,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2004,7 +2153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2364,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2914,7 +3063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688357-建龙微纳.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>5.27</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>7.86</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>7.95</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>6.48</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002584</t>
+          <t>001743</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富安达长盈灵活配置混合A</t>
+          <t>诺安优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>21.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.55</t>
+          <t>72.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.6788</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,224 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>016214</t>
+          <t>010296</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富安达长盈灵活配置混合C</t>
+          <t>万家互联互通中国优势量化策略混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.55</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.2583</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -788,36 +993,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519697</t>
+          <t>002584</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银优势行业混合</t>
+          <t>富安达长盈灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.52</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.23</t>
+          <t>46.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7297</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -826,32 +1031,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>016214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>富安达长盈灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>46.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0741</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -864,6 +1069,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2513,7 +2850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3063,7 +3400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
